--- a/考研学习计划.xlsx
+++ b/考研学习计划.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>考研专业课</t>
+  </si>
   <si>
     <t>考研数学</t>
   </si>
@@ -22,13 +25,34 @@
     <t>考研英语</t>
   </si>
   <si>
+    <t>数据结构</t>
+  </si>
+  <si>
+    <t>操作系统</t>
+  </si>
+  <si>
+    <t>计算机原理</t>
+  </si>
+  <si>
+    <t>计算机网络</t>
+  </si>
+  <si>
     <t>基础30讲</t>
   </si>
   <si>
     <t>第一讲</t>
   </si>
   <si>
-    <t>3:00-</t>
+    <t>3:00-6:00</t>
+  </si>
+  <si>
+    <t>基础词汇</t>
+  </si>
+  <si>
+    <t>1517词汇</t>
+  </si>
+  <si>
+    <t>6:00-7:00</t>
   </si>
 </sst>
 </file>
@@ -973,42 +997,80 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.7777777777778"/>
+    <col min="4" max="4" width="10.7777777777778" customWidth="1"/>
+    <col min="6" max="6" width="9.66666666666667" customWidth="1"/>
+    <col min="7" max="7" width="10.7777777777778" customWidth="1"/>
+    <col min="9" max="9" width="9.66666666666667" customWidth="1"/>
+    <col min="12" max="12" width="9.66666666666667" customWidth="1"/>
+    <col min="15" max="15" width="11.8888888888889" customWidth="1"/>
+    <col min="18" max="18" width="11.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:6">
-      <c r="C1" t="s">
+    <row r="1" spans="9:17">
+      <c r="I1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1"/>
-      <c r="F1" t="s">
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="3:18">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
+      <c r="D2"/>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>44093</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2">
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2"/>
@@ -1037,9 +1099,13 @@
     <row r="12" spans="2:2">
       <c r="B12" s="2"/>
     </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:B12"/>
+  <mergeCells count="2">
+    <mergeCell ref="I1:Q1"/>
+    <mergeCell ref="B3:B13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
